--- a/pisteet.xlsx
+++ b/pisteet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esa.kortelainen\fullstack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC90BC-7B3D-47D8-958E-A06DA0744692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A8BC0-8375-4EA8-99D3-9759CAE69FC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EAD7B29-867D-4075-B02F-BCC1ABFCB811}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,14 +507,14 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>138</v>
       </c>
       <c r="D11">
         <f>C11-B11</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pisteet.xlsx
+++ b/pisteet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esa.kortelainen\fullstack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A8BC0-8375-4EA8-99D3-9759CAE69FC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4B666-F626-44B1-A1DC-38C9A437EB54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EAD7B29-867D-4075-B02F-BCC1ABFCB811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>max</t>
   </si>
@@ -42,17 +42,35 @@
     <t>tehty</t>
   </si>
   <si>
-    <t>7 op</t>
-  </si>
-  <si>
     <t>jäljellä</t>
+  </si>
+  <si>
+    <t>mitkä</t>
+  </si>
+  <si>
+    <t>kaikki</t>
+  </si>
+  <si>
+    <t>kaikki paitsi 13, 14</t>
+  </si>
+  <si>
+    <t>osa</t>
+  </si>
+  <si>
+    <t>kaikki paitsi 22</t>
+  </si>
+  <si>
+    <t>1-12,19-21</t>
+  </si>
+  <si>
+    <t>7 op vaatimus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +85,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -94,9 +126,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -412,112 +447,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F78A46F-1634-495F-862B-05A0AE4AB714}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>23</v>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>22</v>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>21</v>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
       <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>SUM(A2:A9)</f>
-        <v>149</v>
-      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C11">
+        <f>SUM(C2:C9)</f>
+        <v>140</v>
+      </c>
+      <c r="D11">
         <v>138</v>
       </c>
-      <c r="D11">
-        <f>C11-B11</f>
-        <v>2</v>
+      <c r="E11">
+        <f>D11-C11</f>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>